--- a/data/income_statement/2digits/size/25_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/25_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,899 +841,1014 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4766809.07167</v>
+        <v>4993110.413319999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5508021.62781</v>
+        <v>5722040.484440001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7201365.43629</v>
+        <v>7397191.92573</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7622159.17268</v>
+        <v>7889475.736939999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>10740742.96024</v>
+        <v>11155323.76001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12062040.24335</v>
+        <v>12476243.94874</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>13048061.75489</v>
+        <v>13809074.49451</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>14351469.90757</v>
+        <v>15215937.73201</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>16574710.39155</v>
+        <v>17724185.70986</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>27305301.60368</v>
+        <v>27487440.8728</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>29460003.75931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>29848336.41022</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>36971229.202</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4150921.12353</v>
+        <v>4326396.55763</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4923878.10267</v>
+        <v>5093907.684479999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6428511.31283</v>
+        <v>6584000.03237</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6873697.04183</v>
+        <v>7094300.000150001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9677032.13504</v>
+        <v>10020009.58853</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>10849707.74022</v>
+        <v>11185148.17228</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>11710202.52255</v>
+        <v>12356400.57164</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>12883868.56173</v>
+        <v>13601011.72086</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>14920545.93289</v>
+        <v>15867060.93219</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>23530263.40397</v>
+        <v>23641724.08895</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>24931850.26379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25212048.64121</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>31116432.032</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>553881.65753</v>
+        <v>605332.64056</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>521405.8750300001</v>
+        <v>563755.3399000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>695991.71964</v>
+        <v>733557.52824</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>678747.69966</v>
+        <v>725283.56339</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>943295.61195</v>
+        <v>1011548.66389</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1096329.09987</v>
+        <v>1170395.35323</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1196185.18223</v>
+        <v>1301723.26849</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1305810.45045</v>
+        <v>1428191.47988</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1485580.46623</v>
+        <v>1656295.26016</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3464100.02487</v>
+        <v>3540610.99869</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4138165.67136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4247980.95702</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5444300.65</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>62006.29061</v>
+        <v>61381.21513</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>62737.65011</v>
+        <v>64377.46006</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>76862.40381999999</v>
+        <v>79634.36512</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>69714.43119</v>
+        <v>69892.17339999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>120415.21325</v>
+        <v>123765.50759</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>116003.40326</v>
+        <v>120700.42323</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>141674.05011</v>
+        <v>150950.65438</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>161790.89539</v>
+        <v>186734.53127</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>168583.99243</v>
+        <v>200829.51751</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>310938.1748400001</v>
+        <v>305105.78516</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>389987.82416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>388306.81199</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>410496.52</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>53986.58503</v>
+        <v>57768.86319999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>59630.99162</v>
+        <v>61929.77363</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>82979.75827000001</v>
+        <v>87779.19742</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>84281.91605000001</v>
+        <v>87411.44158</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>105170.85905</v>
+        <v>119451.46319</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>106788.41346</v>
+        <v>114790.00833</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>154271.79561</v>
+        <v>176451.98954</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>130401.63839</v>
+        <v>147995.92643</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>143646.21078</v>
+        <v>162536.0644</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>296971.88388</v>
+        <v>304790.42178</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>342317.38661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>345110.4842899999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>623155.497</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>34599.79635</v>
+        <v>38393.11191</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>36692.00805</v>
+        <v>39743.10929</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>57690.79051000001</v>
+        <v>60327.69633</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>54898.632</v>
+        <v>57652.49981</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>70337.23728</v>
+        <v>76872.96584999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>80643.91494999999</v>
+        <v>85709.49486000002</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>122302.89218</v>
+        <v>136408.65125</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>97865.51697</v>
+        <v>106858.36205</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>98192.8055</v>
+        <v>110771.96155</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>217777.25824</v>
+        <v>225286.77737</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>243567.93075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>245328.05587</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>522422.924</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>17696.60997</v>
+        <v>17401.17733</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>19804.18455</v>
+        <v>19332.68147</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>22338.55865</v>
+        <v>23628.21463</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>25464.83605000001</v>
+        <v>25657.46057</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>28208.76103</v>
+        <v>35715.12759</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>18906.59394</v>
+        <v>21278.45711</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>24482.57083</v>
+        <v>27803.63757</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>25727.07113</v>
+        <v>33632.82462</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>34543.7063</v>
+        <v>36827.00671</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>56269.99566</v>
+        <v>57569.15269</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>72356.01969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>73499.52267000002</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>72615.12699999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1690.17871</v>
+        <v>1974.57396</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>3134.799019999999</v>
+        <v>2853.98287</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2950.40911</v>
+        <v>3823.28646</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3918.448</v>
+        <v>4101.4812</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>6624.86074</v>
+        <v>6863.369749999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7237.904570000001</v>
+        <v>7802.05636</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7486.332600000001</v>
+        <v>12239.70072</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>6809.050290000001</v>
+        <v>7504.739759999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>10909.69898</v>
+        <v>14937.09614</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>22924.62998</v>
+        <v>21934.49172</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>26393.43617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>26282.90575</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>28117.446</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4712822.486640001</v>
+        <v>4935341.55012</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5448390.636190001</v>
+        <v>5660110.71081</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7118385.67802</v>
+        <v>7309412.72831</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7537877.256630001</v>
+        <v>7802064.29536</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>10635572.10119</v>
+        <v>11035872.29682</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11955251.82989</v>
+        <v>12361453.94041</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12893789.95928</v>
+        <v>13632622.50497</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>14221068.26918</v>
+        <v>15067941.80558</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>16431064.18077</v>
+        <v>17561649.64546</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>27008329.7198</v>
+        <v>27182650.45101999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>29117686.37270001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>29503225.92593</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>36348073.705</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3951176.23664</v>
+        <v>4136151.35372</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4584322.32617</v>
+        <v>4756115.15066</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6005666.933300001</v>
+        <v>6166357.72596</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6331042.963269999</v>
+        <v>6563670.47377</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8931341.212579999</v>
+        <v>9264635.773389999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>10059699.34143</v>
+        <v>10415554.2341</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10816481.2916</v>
+        <v>11457389.23821</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>11953276.11057</v>
+        <v>12675020.17664</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>13883070.17013</v>
+        <v>14832880.44981</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>22930609.98616</v>
+        <v>23107147.95689</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>24639218.12882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24986472.68736</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>30857755.568</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2641545.26426</v>
+        <v>2777242.97005</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3105720.60894</v>
+        <v>3237324.17972</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4054719.27176</v>
+        <v>4183634.41196</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4296922.99377</v>
+        <v>4489114.37626</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6172496.83169</v>
+        <v>6424680.40593</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6771310.16941</v>
+        <v>7031827.151819999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7390779.335959999</v>
+        <v>7840816.88366</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>8080933.19663</v>
+        <v>8617922.404790001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>9346170.34766</v>
+        <v>10070283.51018</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>15904820.45204</v>
+        <v>16028835.89051</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>17039767.97826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17207690.65297</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>21073574.467</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>836306.75442</v>
+        <v>860863.43469</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>988440.92936</v>
+        <v>999662.2654500001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1323571.80676</v>
+        <v>1335073.04365</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1365350.01445</v>
+        <v>1378435.17067</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1856227.85177</v>
+        <v>1880517.76895</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2257524.19579</v>
+        <v>2316960.95444</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2326592.52718</v>
+        <v>2448089.86117</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2521046.35792</v>
+        <v>2650246.34688</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3031370.85174</v>
+        <v>3163441.62885</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5040776.89467</v>
+        <v>5050669.95851</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5429083.89265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5555545.507219999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7238782.708</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>465026.4250700001</v>
+        <v>487842.99643</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>479893.0894400001</v>
+        <v>507905.49652</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>608883.44679</v>
+        <v>630271.66828</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>657344.78688</v>
+        <v>684342.2094200001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>883924.4522000001</v>
+        <v>940607.5413399999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1000663.15156</v>
+        <v>1033379.14918</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1059313.78235</v>
+        <v>1125975.4973</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1301668.54047</v>
+        <v>1346464.73488</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1458507.44785</v>
+        <v>1536432.83924</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1884075.95883</v>
+        <v>1933272.1855</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2037387.19741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2093354.87826</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2268732.437</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>8297.792890000001</v>
+        <v>10201.95255</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>10267.69843</v>
+        <v>11223.20897</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>18492.40799</v>
+        <v>17378.60207</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>11425.16817</v>
+        <v>11778.71742</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>18692.07692</v>
+        <v>18830.05717</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>30201.82467</v>
+        <v>33386.97866</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>39795.64611</v>
+        <v>42506.99608</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>49628.01555</v>
+        <v>60386.69009</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>47021.52288</v>
+        <v>62722.47154000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>100936.68062</v>
+        <v>94369.92237</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>132979.0605</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>129881.64891</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>276665.956</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>761646.25</v>
+        <v>799190.1964</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>864068.31002</v>
+        <v>903995.5601500002</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1112718.74472</v>
+        <v>1143055.00235</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1206834.29336</v>
+        <v>1238393.82159</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1704230.88861</v>
+        <v>1771236.52343</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1895552.48846</v>
+        <v>1945899.70631</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2077308.66768</v>
+        <v>2175233.26676</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2267792.15861</v>
+        <v>2392921.62894</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2547994.01064</v>
+        <v>2728769.19565</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4077719.73364</v>
+        <v>4075502.49413</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4478468.24388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4516753.23857</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5490318.137</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>507940.12239</v>
+        <v>527642.74936</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>572052.6281400002</v>
+        <v>591930.7228199999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>717090.2921600001</v>
+        <v>734513.04266</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>795525.7095</v>
+        <v>823430.4994399999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1073779.00889</v>
+        <v>1112325.77987</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1249032.72659</v>
+        <v>1269910.79607</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1338795.91115</v>
+        <v>1388932.63485</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1510126.94626</v>
+        <v>1553654.18029</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1662522.36334</v>
+        <v>1729137.64901</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2323568.94142</v>
+        <v>2294623.04266</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2644894.770310001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2619364.51195</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2954339.718</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2762.80217</v>
+        <v>3843.95513</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2200.73906</v>
+        <v>2297.10097</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3284.11217</v>
+        <v>3310.08913</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5904.75286</v>
+        <v>5883.747230000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>6780.04101</v>
+        <v>7629.038329999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5307.11705</v>
+        <v>5509.46603</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3354.30775</v>
+        <v>4117.26375</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7924.22857</v>
+        <v>8670.021559999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2653.50426</v>
+        <v>5317.710590000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>7814.23243</v>
+        <v>9068.01899</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>9857.976010000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>11357.82254</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>20913.531</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>93581.19619</v>
+        <v>99624.16165000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>117038.12228</v>
+        <v>122216.41366</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>150156.70594</v>
+        <v>156803.38435</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>162246.82513</v>
+        <v>168782.16381</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>219872.24877</v>
+        <v>232707.49012</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>252446.76899</v>
+        <v>262072.50171</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>254836.32634</v>
+        <v>271802.37007</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>269448.1747</v>
+        <v>287124.32286</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>304396.6765999999</v>
+        <v>323612.17618</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>530407.1936</v>
+        <v>532283.7716999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>593999.85938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>597042.0200199999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>667829.204</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>411596.12403</v>
+        <v>424174.63258</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>452813.7668000001</v>
+        <v>467417.20819</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>563649.47405</v>
+        <v>574399.56918</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>627374.13151</v>
+        <v>648764.5884000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>847126.7191100001</v>
+        <v>871989.2514200001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>991278.84055</v>
+        <v>1002328.82833</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1080605.27706</v>
+        <v>1113013.00103</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1232754.54299</v>
+        <v>1257859.83587</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1355472.18248</v>
+        <v>1400207.76224</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1785347.51539</v>
+        <v>1753271.25197</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2041036.93492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2010964.66939</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2265596.983</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>253706.12761</v>
+        <v>271547.44704</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>292015.68188</v>
+        <v>312064.8373300001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>395628.4525600001</v>
+        <v>408541.95969</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>411308.58386</v>
+        <v>414963.32215</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>630451.8797200001</v>
+        <v>658910.74356</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>646519.76187</v>
+        <v>675988.91024</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>738512.75653</v>
+        <v>786300.6319099999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>757665.21235</v>
+        <v>839267.4486499999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>885471.6473000001</v>
+        <v>999631.5466399998</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1754150.79222</v>
+        <v>1780879.45147</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1833573.47357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1897388.72662</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2535978.419</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>65112.73493</v>
+        <v>82504.35210999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>55136.59976</v>
+        <v>66633.06323</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>60859.48133</v>
+        <v>203430.88677</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>56987.39448</v>
+        <v>79188.73832</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>105103.39833</v>
+        <v>116988.89206</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>100723.24381</v>
+        <v>113650.35603</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>148928.44908</v>
+        <v>179517.35539</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>152088.40744</v>
+        <v>184294.93534</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>165589.57637</v>
+        <v>197920.28911</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>864235.64858</v>
+        <v>908239.2398300001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>509665.22476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>515697.41774</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>912481.831</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>434.70967</v>
+        <v>479.44967</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1641.14581</v>
+        <v>7694.95766</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>549.58208</v>
+        <v>778.19115</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>5.368819999999999</v>
+        <v>290.1661</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>296.95181</v>
+        <v>886.8692399999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1065.33121</v>
+        <v>2351.66407</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2983.35414</v>
+        <v>974.2401499999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4052.05663</v>
+        <v>3033.91782</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4300.76324</v>
+        <v>1560.9991</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>12009.44658</v>
+        <v>1974.69974</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3113.82212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>284.85299</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2610.524</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1.21639</v>
+        <v>56.74209</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>81.97792999999999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0.03467</v>
+        <v>114936.55296</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>6.47472</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>401.28103</v>
+        <v>714.8618299999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1103.88219</v>
+        <v>309.27126</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>317.96058</v>
+        <v>651.9953</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>356.24004</v>
+        <v>4.67647</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>268.93186</v>
+        <v>388.44488</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>744.17094</v>
@@ -1840,209 +1856,239 @@
       <c r="M27" s="48" t="n">
         <v>1172.60038</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1095.975</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>7587.50541</v>
+        <v>9225.94786</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5623.026869999999</v>
+        <v>8458.341359999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>5949.90068</v>
+        <v>8537.741239999998</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8428.80365</v>
+        <v>11044.08742</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>10611.05403</v>
+        <v>12400.06401</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>12493.5977</v>
+        <v>17191.51396</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>14353.23603</v>
+        <v>20459.81432</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>14192.49237</v>
+        <v>17996.86848</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>17703.42637</v>
+        <v>22121.50012</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>60821.19173000001</v>
+        <v>56189.05492</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>74237.75212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>69833.57818</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>61578.278</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>292.43061</v>
+        <v>267.89904</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>471.85428</v>
+        <v>687.9234</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>287.01732</v>
+        <v>397.45594</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>252.33124</v>
+        <v>264.583</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>279.74585</v>
+        <v>284.64884</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>575.13402</v>
+        <v>913.7921399999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2223.44084</v>
+        <v>5415.666969999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1335.78217</v>
+        <v>1394.82269</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1453.12352</v>
+        <v>1459.12525</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2452.71746</v>
+        <v>3206.595539999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>767.9677299999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>767.9601499999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3913.921</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4470.23378</v>
+        <v>4843.53654</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1500.80639</v>
+        <v>1518.44113</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2959.79746</v>
+        <v>3248.54816</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1281.79842</v>
+        <v>1837.62677</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2268.87141</v>
+        <v>1957.06334</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3206.52536</v>
+        <v>3232.30036</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2773.80418</v>
+        <v>3919.8594</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2070.60304</v>
+        <v>4193.61491</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1667.11913</v>
+        <v>2268.23722</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3691.92921</v>
+        <v>4172.109769999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>15774.04565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>16649.679</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8136.115</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>860.8919400000001</v>
+        <v>1253.68159</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>631.60613</v>
+        <v>840.66354</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>585.41863</v>
+        <v>526.49563</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1065.56817</v>
+        <v>8920.0108</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>773.5830299999999</v>
+        <v>1324.06033</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>993.6766499999999</v>
+        <v>3456.647</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1199.96417</v>
+        <v>1777.17742</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1068.93849</v>
+        <v>1509.8178</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1366.61994</v>
+        <v>1630.5851</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5589.76946</v>
+        <v>4401.894240000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4619.436320000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5545.707429999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>9600.736999999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>35356.16757</v>
+        <v>50932.47619</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>27341.77086</v>
+        <v>32260.78778</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>36608.80841000001</v>
+        <v>46545.97515999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>20757.0237</v>
+        <v>34789.30031000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>56466.48217</v>
+        <v>65613.69710999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>48405.17356</v>
+        <v>55702.66827999998</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>94400.49281</v>
+        <v>114087.16504</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>82786.48104</v>
+        <v>104178.01237</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>87387.36297</v>
+        <v>118047.5015</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>689674.67943</v>
+        <v>746953.81027</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>314733.29319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>332648.48364</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>733176.184</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>34.23749</v>
+        <v>35.28558</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>209.19425</v>
@@ -2051,16 +2097,16 @@
         <v>200.254</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>186.60618</v>
+        <v>1340.19204</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>210.87346</v>
+        <v>196.93505</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>111.97973</v>
+        <v>151.37084</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>50.49146</v>
+        <v>74.60773</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>3.45223</v>
@@ -2069,19 +2115,24 @@
         <v>206.71231</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>889.1877500000001</v>
+        <v>1008.79345</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1554.53186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1628.51186</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>2370.464</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>179.325</v>
+        <v>181.425</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>306.25617</v>
@@ -2090,22 +2141,22 @@
         <v>14.44057</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>601.0374099999999</v>
+        <v>584.0407299999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>241.98243</v>
+        <v>197.33002</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>404.22955</v>
+        <v>403.75957</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>152.63444</v>
+        <v>12.23599</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>270.82707</v>
+        <v>62.43285999999999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>291.4673</v>
+        <v>285.1873</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>39.16233999999999</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>21.30192</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>27.896</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>15896.01707</v>
+        <v>15227.90855</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>17328.96107</v>
+        <v>14574.52001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>13704.22751</v>
+        <v>28245.23196</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>24402.38217</v>
+        <v>20112.25643</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>33552.57311</v>
+        <v>33413.36229</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>32363.71384</v>
+        <v>29937.36855</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>30473.07043</v>
+        <v>32144.59307</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>45951.53436</v>
+        <v>51917.31971000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>50944.04973</v>
+        <v>49951.99633</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>88323.39368000001</v>
+        <v>89548.94862</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>93670.47347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>87144.74219</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>89971.73699999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>56602.91037999999</v>
+        <v>70372.94988</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>44764.02771</v>
+        <v>54655.51241</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>60604.99920000001</v>
+        <v>68362.01534999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>39431.09352</v>
+        <v>53938.3316</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>100280.17488</v>
+        <v>110739.66758</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>90228.68135000001</v>
+        <v>109039.19313</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>126068.04289</v>
+        <v>153520.1063</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>121865.87371</v>
+        <v>157800.73998</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>138043.24113</v>
+        <v>255338.31796</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>871020.66775</v>
+        <v>950755.62019</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>393597.16122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>421564.8484600001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>706351.64</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1596.32533</v>
+        <v>1653.9504</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1168.1096</v>
+        <v>1331.58056</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1373.99898</v>
+        <v>1416.82219</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1250.79858</v>
+        <v>1301.38284</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2174.8886</v>
+        <v>2197.906860000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2642.98531</v>
+        <v>2901.86672</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3771.0331</v>
+        <v>4047.303</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2711.74355</v>
+        <v>3689.80615</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3348.72656</v>
+        <v>4758.116940000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7906.526779999999</v>
+        <v>8044.99599</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5808.72643</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5737.82194</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6424.609</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>10586.11425</v>
+        <v>10585.95193</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9124.436760000001</v>
+        <v>9360.43816</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5411.88659</v>
+        <v>5418.75613</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>7403.96133</v>
+        <v>9977.585140000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>20887.66005</v>
+        <v>20984.82319</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>18593.26725</v>
+        <v>22436.35645</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>17176.84299</v>
+        <v>18212.02988</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>15686.07133</v>
+        <v>23455.21924</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>19876.11089</v>
+        <v>108263.29882</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>73539.76798</v>
+        <v>56220.74464</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>46195.95469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>59386.66951</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>38220.597</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>173.78695</v>
+        <v>88.32758</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>73.33883999999999</v>
+        <v>49.42228</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>596.33741</v>
+        <v>581.9111700000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>111.70267</v>
+        <v>111.67018</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>300.4185400000001</v>
+        <v>312.55173</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>198.74872</v>
+        <v>199.29621</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>367.75558</v>
+        <v>395.31965</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4695.23737</v>
+        <v>260.31432</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>929.2706699999999</v>
+        <v>983.8702900000001</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>2133.02046</v>
+        <v>1069.63296</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>677.6985</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>658.47782</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>12634.275</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>36446.83153</v>
+        <v>50137.1166</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>27577.72461</v>
+        <v>35999.83248</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>43245.79906</v>
+        <v>50631.17804</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>20718.78898</v>
+        <v>35705.45953</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>62980.79281</v>
+        <v>74990.03667</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>53001.08075</v>
+        <v>64567.88818</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>91712.06891000002</v>
+        <v>116630.02768</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>80064.54136</v>
+        <v>110486.54212</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>98213.80885</v>
+        <v>123608.00382</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>748187.7106</v>
+        <v>847730.75668</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>312249.98271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>329113.51406</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>613078.299</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>35.24635</v>
+        <v>42.05794</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>178.16918</v>
@@ -2363,58 +2449,63 @@
         <v>228.87255</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>48.84819</v>
+        <v>256.51601</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>284.64548</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>161.55981</v>
+        <v>233.01696</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>63.1242</v>
+        <v>165.58393</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>57.15659</v>
+        <v>76.72345999999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>116.09035</v>
+        <v>117.44959</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1012.4845</v>
+        <v>1131.46906</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1415.28736</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1175.71567</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1309.794</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>37.97905</v>
+        <v>49.97905</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>69.16031</v>
+        <v>69.16033</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>58.29712</v>
+        <v>56.80863000000001</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>24.96128</v>
+        <v>6.70767</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>1.74458</v>
+        <v>1.74982</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>31.14615999999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>48.02567</v>
+        <v>20.12052</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>23.84726</v>
+        <v>44.93642</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>59.8201</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>6.89156</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>7.032</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>7726.626919999999</v>
+        <v>7815.56638</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>6573.08841</v>
+        <v>7666.90942</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>9689.807490000001</v>
+        <v>10027.66664</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>9872.03249</v>
+        <v>6579.01023</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>13650.02482</v>
+        <v>11967.95383</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>15599.89335</v>
+        <v>18669.62245</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>12929.19244</v>
+        <v>14049.72164</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>18627.27625</v>
+        <v>19787.19827</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>15499.41371</v>
+        <v>17547.7584</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>38241.05518</v>
+        <v>36557.91861</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>27242.61997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>25485.7579</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>34677.034</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>85735.37805</v>
+        <v>103487.50665</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>67225.92906000001</v>
+        <v>77873.77052999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>88004.79187</v>
+        <v>99533.32713999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>108673.55814</v>
+        <v>126668.93983</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>149786.33199</v>
+        <v>171578.28723</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>173119.08994</v>
+        <v>198186.91174</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>206553.51618</v>
+        <v>244081.38953</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>242844.52898</v>
+        <v>298046.16526</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>262900.02526</v>
+        <v>321656.69023</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>630559.29083</v>
+        <v>652650.17524</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>650462.46418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>678201.86206</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>608202.191</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>82193.66014000001</v>
+        <v>99019.23237</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>64228.93867</v>
+        <v>74333.46059999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>84521.33258999999</v>
+        <v>95966.99509</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>104427.13414</v>
+        <v>120583.12871</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>143722.4941</v>
+        <v>163275.54276</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>167263.00366</v>
+        <v>190591.13958</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>197018.46402</v>
+        <v>232211.22533</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>233835.65002</v>
+        <v>287696.28502</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>253372.35986</v>
+        <v>310055.79524</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>602891.92866</v>
+        <v>618553.19704</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>621603.85549</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>648374.63807</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>583949.3419999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3541.71791</v>
+        <v>4468.27428</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2996.99039</v>
+        <v>3540.30993</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3483.45928</v>
+        <v>3566.33205</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4246.424</v>
+        <v>6085.811119999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>6063.83789</v>
+        <v>8302.74447</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5856.08628</v>
+        <v>7595.77216</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>9535.052159999999</v>
+        <v>11870.1642</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>9008.87896</v>
+        <v>10349.88024</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>9527.6654</v>
+        <v>11600.89499</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>27667.36217</v>
+        <v>34096.97820000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>28858.60869</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>29827.22399</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>24252.849</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>176480.57411</v>
+        <v>180191.34262</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>235162.32487</v>
+        <v>246168.61762</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>307878.14282</v>
+        <v>444077.50397</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>320191.3266799999</v>
+        <v>313544.78904</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>485488.77118</v>
+        <v>493581.68081</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>483895.2343900001</v>
+        <v>482413.1614</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>554819.64654</v>
+        <v>568216.49147</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>545043.2171</v>
+        <v>567715.47875</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>650117.9572800001</v>
+        <v>620556.8275599999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1116806.48222</v>
+        <v>1085712.89587</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1299179.07293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1313319.43384</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2133906.419</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>27203.22478</v>
+        <v>32478.02024</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>28733.46411</v>
+        <v>40263.7206</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>41555.2523</v>
+        <v>35531.60423999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>39090.6365</v>
+        <v>42042.91127</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>62796.09699</v>
+        <v>79000.76908</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>94288.99103000002</v>
+        <v>96525.02475</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>85428.73770999999</v>
+        <v>90276.8342</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>106790.68461</v>
+        <v>125996.63101</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>120445.74615</v>
+        <v>120708.83557</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>211734.62852</v>
+        <v>191931.16141</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>219983.31632</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>202939.94514</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>231486.508</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>355.8192</v>
+        <v>435.442</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>377.65051</v>
+        <v>487.3808200000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>692.2685700000001</v>
+        <v>588.42301</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>743.0486999999999</v>
+        <v>1013.00988</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>859.94039</v>
+        <v>564.0694199999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>779.78202</v>
+        <v>1047.54553</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2626.15208</v>
+        <v>2854.89339</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2064.26048</v>
+        <v>1627.33024</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2334.86021</v>
+        <v>1064.3411</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2163.06139</v>
+        <v>2153.84138</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2062.85061</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2160.68397</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5416.61</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>26847.40558</v>
+        <v>32042.57824</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>28355.8136</v>
+        <v>39776.33978</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>40862.98373</v>
+        <v>34943.18123</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>38347.58779999999</v>
+        <v>41029.90139</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>61936.1566</v>
+        <v>78436.69966</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>93509.20900999999</v>
+        <v>95477.47921999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>82802.58563</v>
+        <v>87421.94081</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>104726.42413</v>
+        <v>124369.30077</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>118110.88594</v>
+        <v>119644.49447</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>209571.56713</v>
+        <v>189777.32003</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>217920.46571</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>200779.26117</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>226069.898</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>29931.55881</v>
+        <v>34566.24175</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>29360.36351</v>
+        <v>30085.03891</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>265564.20534</v>
+        <v>267127.13383</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>45774.03106</v>
+        <v>48834.35001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>58948.19445999999</v>
+        <v>66573.68835</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>196745.11097</v>
+        <v>193205.48246</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>66298.75584</v>
+        <v>70328.74811000002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>266154.00176</v>
+        <v>289426.29996</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>79509.46636000002</v>
+        <v>84111.18762000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>343791.67753</v>
+        <v>342674.0964</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>145264.64197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>157017.9863</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>175395.847</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3019.9963</v>
+        <v>3830.67967</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2126.29414</v>
+        <v>3159.7217</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2019.84044</v>
+        <v>4045.1816</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3579.09415</v>
+        <v>9173.525009999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4981.07142</v>
+        <v>6670.339109999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6099.439630000001</v>
+        <v>6381.04906</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7045.85781</v>
+        <v>8770.766360000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3914.18188</v>
+        <v>4809.343390000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>3878.21665</v>
+        <v>5836.827310000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>9047.934220000001</v>
+        <v>20333.05518</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>10938.43331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>18768.41621</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>19063.258</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2117.67658</v>
+        <v>2519.92296</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1598.54335</v>
+        <v>2190.55266</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2161.04261</v>
+        <v>2806.47821</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2775.69363</v>
+        <v>3174.9575</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4102.579839999999</v>
+        <v>4787.45309</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9376.54789</v>
+        <v>4436.83845</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1592.96529</v>
+        <v>3273.09308</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2882.85286</v>
+        <v>3071.82886</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2081.47364</v>
+        <v>2283.55533</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6018.980509999999</v>
+        <v>5778.672509999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3001.68368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3367.226470000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>10321.99</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>24793.88593</v>
+        <v>28215.63912</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>25635.52602</v>
+        <v>24734.76455</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>261383.32229</v>
+        <v>260275.47402</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>39419.24328</v>
+        <v>36485.8675</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>49864.5432</v>
+        <v>55115.89615000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>181269.12345</v>
+        <v>182387.59495</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>57659.93274</v>
+        <v>58284.88867</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>259356.96702</v>
+        <v>281545.12771</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>73549.77606999999</v>
+        <v>75990.80498</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>328724.7628</v>
+        <v>316562.36871</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>131324.52498</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>134882.34362</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>146010.599</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>173752.24008</v>
+        <v>178103.12111</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>234535.42547</v>
+        <v>256347.29931</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>83869.18978</v>
+        <v>212481.97438</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>313507.93212</v>
+        <v>306753.3502999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>489336.6737100001</v>
+        <v>506008.76154</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>381439.11445</v>
+        <v>385732.7036899999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>573949.62841</v>
+        <v>588164.57756</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>385679.89995</v>
+        <v>404285.8097999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>691054.23707</v>
+        <v>657154.47551</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>984749.43321</v>
+        <v>934969.96088</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1373897.74728</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1359241.39268</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2189997.08</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>39172.12237</v>
+        <v>41114.22962000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>47464.27456999999</v>
+        <v>50421.66765</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>62432.70521000001</v>
+        <v>63808.36532</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>64503.87349</v>
+        <v>66639.63982</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>97700.46168000001</v>
+        <v>102359.42478</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>105987.14665</v>
+        <v>108553.03487</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>113877.67958</v>
+        <v>120134.697</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>119131.35177</v>
+        <v>125501.67371</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>139832.74945</v>
+        <v>149871.15549</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>258682.2932</v>
+        <v>251789.49055</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>287674.83894</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>281902.25776</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>396137.643</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>134580.11771</v>
+        <v>136988.89149</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>187071.1509</v>
+        <v>205925.63166</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>21436.48457</v>
+        <v>148673.60906</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>249004.05863</v>
+        <v>240113.71048</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>391636.21203</v>
+        <v>403649.33676</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>275451.9678</v>
+        <v>277179.66882</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>460071.9488300001</v>
+        <v>468029.88056</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>266548.54818</v>
+        <v>278784.13609</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>551221.48762</v>
+        <v>507283.32002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>726067.14001</v>
+        <v>683180.47033</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1086222.90834</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1077339.13492</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1793859.437</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2932</v>
+        <v>2684</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3172</v>
+        <v>2864</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3561</v>
+        <v>3222</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3809</v>
+        <v>3424</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4458</v>
+        <v>3925</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4930</v>
+        <v>4244</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5312</v>
+        <v>4508</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5780</v>
+        <v>4778</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>6210</v>
+        <v>5122</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4583</v>
+        <v>4112</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4692</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4097</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>